--- a/1-Data/WG2_Ice_data.xlsx
+++ b/1-Data/WG2_Ice_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F0634-420B-4857-A16E-B2C35F2296CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160972B-9618-4325-9832-B8D51F1320FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="112">
   <si>
     <t>pi_name</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Clear, layer of slush on top</t>
   </si>
   <si>
-    <t>GB32</t>
-  </si>
-  <si>
     <t>Small chunks of ice floating in water, ice formation seems to be further from shore</t>
   </si>
   <si>
@@ -261,13 +258,127 @@
   </si>
   <si>
     <t>11Feb25</t>
+  </si>
+  <si>
+    <t>20Feb25</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>18Feb25</t>
+  </si>
+  <si>
+    <t>1-14.5 cm of black ice and 14.5-17 cm of white ice</t>
+  </si>
+  <si>
+    <t>Clear to mostly clear ice, toppped with frozen snow</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>SB4</t>
+  </si>
+  <si>
+    <t>13Feb25</t>
+  </si>
+  <si>
+    <t>Clear under snow</t>
+  </si>
+  <si>
+    <t>SB14</t>
+  </si>
+  <si>
+    <t>SB2</t>
+  </si>
+  <si>
+    <t>Very thin ice, clear and smooth</t>
+  </si>
+  <si>
+    <t>B Pier</t>
+  </si>
+  <si>
+    <t>No ice on lake</t>
+  </si>
+  <si>
+    <t>Twiss</t>
+  </si>
+  <si>
+    <t>LHU_04</t>
+  </si>
+  <si>
+    <t>1Feb25</t>
+  </si>
+  <si>
+    <t>White ice</t>
+  </si>
+  <si>
+    <t>LSU_01</t>
+  </si>
+  <si>
+    <t>Variable, land fast ice, ice floes moving offshore.</t>
+  </si>
+  <si>
+    <t>SMR_02</t>
+  </si>
+  <si>
+    <t>27Feb24</t>
+  </si>
+  <si>
+    <t>26Feb24</t>
+  </si>
+  <si>
+    <t>29Feb24</t>
+  </si>
+  <si>
+    <t>1 to 10 cm, variable</t>
+  </si>
+  <si>
+    <t>pankcake ice</t>
+  </si>
+  <si>
+    <t>SMR_03</t>
+  </si>
+  <si>
+    <t>shore-fast ice, black ice with white ice entrained below</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>0.5-1 m thick ice, broken into large pans by ice breaker.</t>
+  </si>
+  <si>
+    <t>DR-1</t>
+  </si>
+  <si>
+    <t>19Feb25</t>
+  </si>
+  <si>
+    <t>No lake ice</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>Patches of open water with large pans ~5-10 cm thick</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +388,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -317,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC02E07-F875-4C94-A36D-C7F9F6B2F4BD}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +813,7 @@
     <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,10 +845,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -757,11 +886,17 @@
       <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8">
+        <v>44.751916000000001</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-79.777751800000004</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -784,7 +919,7 @@
         <v>2024</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f t="shared" ref="H3:H37" si="0">CONCATENATE(B3,"_",D3,"_",F3)</f>
+        <f t="shared" ref="H3:H56" si="0">CONCATENATE(B3,"_",D3,"_",F3)</f>
         <v>Bay_of_Quinte_Ice_Thickness_Feb</v>
       </c>
       <c r="I3" s="6">
@@ -793,11 +928,17 @@
       <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8">
+        <v>44.142710000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-77.386049999999997</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -829,11 +970,17 @@
       <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8">
+        <v>42.472000000000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-82.8767</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -865,11 +1012,17 @@
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8">
+        <v>44.220610000000001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-76.501649999999998</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -901,11 +1054,17 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8">
+        <v>41.795189999999998</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-87.576189999999997</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -937,11 +1096,17 @@
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8">
+        <v>46.776739999999997</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-88.483090000000004</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -973,11 +1138,17 @@
       <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8">
+        <v>43.297260000000001</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-79.801839999999999</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1009,11 +1180,17 @@
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8">
+        <v>46.664920000000002</v>
+      </c>
+      <c r="L9" s="8">
+        <v>-90.859920000000002</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1045,11 +1222,17 @@
       <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="8">
+        <v>41.658349000000001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>-82.826087000000001</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1081,11 +1264,17 @@
       <c r="J11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8">
+        <v>44.737580000000001</v>
+      </c>
+      <c r="L11" s="8">
+        <v>-87.777169999999998</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1117,11 +1306,17 @@
       <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="8">
+        <v>42.468910000000001</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-82.41095</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1153,11 +1348,17 @@
       <c r="J13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="8">
+        <v>47.121000000000002</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-88.545000000000002</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1189,11 +1390,17 @@
       <c r="J14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="8">
+        <v>44.581519999999998</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-87.979669999999999</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1225,11 +1432,17 @@
       <c r="J15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="8">
+        <v>44.765729999999998</v>
+      </c>
+      <c r="L15" s="8">
+        <v>-85.605779999999996</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1261,11 +1474,17 @@
       <c r="J16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="8">
+        <v>44.974690000000002</v>
+      </c>
+      <c r="L16" s="8">
+        <v>-85.646770000000004</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1297,11 +1516,17 @@
       <c r="J17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="8">
+        <v>42.47513</v>
+      </c>
+      <c r="L17" s="8">
+        <v>-81.441479999999999</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -1333,11 +1558,17 @@
       <c r="J18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="8">
+        <v>42.824939999999998</v>
+      </c>
+      <c r="L18" s="8">
+        <v>-79.567639999999997</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -1369,11 +1600,17 @@
       <c r="J19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="8">
+        <v>41.281170000000003</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-81.670349999999999</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1405,11 +1642,17 @@
       <c r="J20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="8">
+        <v>41.515250000000002</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-81.721530000000001</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1441,11 +1684,17 @@
       <c r="J21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="9">
+        <v>46.454450000000001</v>
+      </c>
+      <c r="L21" s="9">
+        <v>-84.830200000000005</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -1477,11 +1726,17 @@
       <c r="J22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="9">
+        <v>46.013069999999999</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-84.830200000000005</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1513,11 +1768,17 @@
       <c r="J23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="9">
+        <v>46.664230000000003</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-82.754599999999996</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -1549,16 +1810,22 @@
       <c r="J24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="8">
+        <v>42.472000000000001</v>
+      </c>
+      <c r="L24" s="8">
+        <v>-82.8767</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
@@ -1577,7 +1844,7 @@
       </c>
       <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>GB32_Ice_Thickness_Feb</v>
+        <v>GB_32_Ice_Thickness_Feb</v>
       </c>
       <c r="I25" s="6">
         <v>0.43</v>
@@ -1585,9 +1852,15 @@
       <c r="J25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="8">
+        <v>44.581330000000001</v>
+      </c>
+      <c r="L25" s="8">
+        <v>-87.979699999999994</v>
+      </c>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1619,11 +1892,17 @@
       <c r="J26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="8">
+        <v>41.795189999999998</v>
+      </c>
+      <c r="L26" s="8">
+        <v>-87.576189999999997</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1655,16 +1934,22 @@
       <c r="J27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="8">
+        <v>44.220610000000001</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-76.501649999999998</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -1691,9 +1976,15 @@
       <c r="J28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="8">
+        <v>44.737580000000001</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-87.777169999999998</v>
+      </c>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -1725,11 +2016,17 @@
       <c r="J29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="8">
+        <v>46.664920000000002</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-90.859920000000002</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1761,11 +2058,17 @@
       <c r="J30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="8">
+        <v>44.142710000000001</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-77.386049999999997</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -1797,11 +2100,17 @@
       <c r="J31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8">
+        <v>44.751916000000001</v>
+      </c>
+      <c r="L31" s="8">
+        <v>-79.777751800000004</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>14</v>
@@ -1833,11 +2142,17 @@
       <c r="J32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="8">
+        <v>47.121000000000002</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-88.545000000000002</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -1869,22 +2184,31 @@
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="8">
+        <v>46.776739999999997</v>
+      </c>
+      <c r="L33" s="8">
+        <v>-88.483090000000004</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>14</v>
@@ -1902,11 +2226,17 @@
       <c r="J34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="9">
+        <v>41.472749999999998</v>
+      </c>
+      <c r="L34" s="9">
+        <v>-82.175200000000004</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1919,8 +2249,8 @@
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>67</v>
+      <c r="E35" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>14</v>
@@ -1938,11 +2268,17 @@
       <c r="J35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="9">
+        <v>44.974679999999999</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-85.646879999999996</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -1955,8 +2291,8 @@
       <c r="D36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
+      <c r="E36" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>14</v>
@@ -1974,8 +2310,14 @@
       <c r="J36" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="9">
+        <v>44.76614</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-85.605770000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -1988,8 +2330,8 @@
       <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>74</v>
+      <c r="E37" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>14</v>
@@ -2006,6 +2348,795 @@
       </c>
       <c r="J37" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="K37" s="9">
+        <v>42.466940000000001</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-82.420829999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PIB_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="9">
+        <v>41.659790000000001</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-82.830584999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SB4_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="9">
+        <v>43.736359999999998</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-83.948599999999999</v>
+      </c>
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SB14_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="9">
+        <v>43.73836</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-83.640780000000007</v>
+      </c>
+      <c r="M40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SB2_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="9">
+        <v>43.66742</v>
+      </c>
+      <c r="L41" s="9">
+        <v>-83.807019999999994</v>
+      </c>
+      <c r="M41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>CCIW_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="8">
+        <v>43.297260000000001</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-79.801839999999999</v>
+      </c>
+      <c r="M42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>B Pier_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="9">
+        <v>43.301000000000002</v>
+      </c>
+      <c r="L43" s="9">
+        <v>-79.791939999999997</v>
+      </c>
+      <c r="M43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LHU_04_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="9">
+        <v>46.289400000000001</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-83.793000000000006</v>
+      </c>
+      <c r="M44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSU_01_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="9">
+        <v>46.529167000000001</v>
+      </c>
+      <c r="L45" s="9">
+        <v>-84.586116700000005</v>
+      </c>
+      <c r="M45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SMR_02_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6">
+        <v>46.51417</v>
+      </c>
+      <c r="L46" s="6">
+        <v>-84.346299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>PIB_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="9">
+        <v>41.659790000000001</v>
+      </c>
+      <c r="L47" s="9">
+        <v>-82.830584999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>B Pier_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="9">
+        <v>43.301000000000002</v>
+      </c>
+      <c r="L48" s="9">
+        <v>-79.791939999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LHU_04_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="9">
+        <v>43.741950000000003</v>
+      </c>
+      <c r="L49" s="9">
+        <v>-81.834582999999995</v>
+      </c>
+      <c r="M49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSU_01_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="9">
+        <v>46.289400000000001</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-83.793000000000006</v>
+      </c>
+      <c r="M50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SMR_02_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="9">
+        <v>46.529167000000001</v>
+      </c>
+      <c r="L51" s="9">
+        <v>-84.586116700000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SMR_03_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="6">
+        <v>46.502499999999998</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-84.320830000000001</v>
+      </c>
+      <c r="M52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1A_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="9">
+        <v>43.089300000000001</v>
+      </c>
+      <c r="L53" s="9">
+        <v>-82.412300000000002</v>
+      </c>
+      <c r="M53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>DR-1_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="9">
+        <v>42.351483000000002</v>
+      </c>
+      <c r="L54" s="9">
+        <v>-82.935167000000007</v>
+      </c>
+      <c r="M54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9A_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="9">
+        <v>43.456829999999997</v>
+      </c>
+      <c r="L55" s="9">
+        <v>-82.251166999999995</v>
+      </c>
+      <c r="M55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>10A_Ice_Thickness_Feb</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="9">
+        <v>43.741950000000003</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-81.834582999999995</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data/WG2_Ice_data.xlsx
+++ b/1-Data/WG2_Ice_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160972B-9618-4325-9832-B8D51F1320FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,9 +452,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,17 +800,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -886,17 +883,17 @@
       <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>44.751916000000001</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>-79.777751800000004</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -928,17 +925,17 @@
       <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>44.142710000000001</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>-77.386049999999997</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -970,17 +967,17 @@
       <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>42.472000000000001</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>-82.8767</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1012,17 +1009,17 @@
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>44.220610000000001</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>-76.501649999999998</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1054,17 +1051,17 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>41.795189999999998</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>-87.576189999999997</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1096,17 +1093,17 @@
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>46.776739999999997</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>-88.483090000000004</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1138,17 +1135,17 @@
       <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>43.297260000000001</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>-79.801839999999999</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1180,17 +1177,17 @@
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>46.664920000000002</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>-90.859920000000002</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1222,17 +1219,17 @@
       <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>41.658349000000001</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>-82.826087000000001</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1264,17 +1261,17 @@
       <c r="J11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>44.737580000000001</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>-87.777169999999998</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1306,17 +1303,17 @@
       <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>42.468910000000001</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>-82.41095</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1348,17 +1345,17 @@
       <c r="J13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>47.121000000000002</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>-88.545000000000002</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1390,17 +1387,17 @@
       <c r="J14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>44.581519999999998</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>-87.979669999999999</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1432,17 +1429,17 @@
       <c r="J15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>44.765729999999998</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>-85.605779999999996</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1474,17 +1471,17 @@
       <c r="J16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>44.974690000000002</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>-85.646770000000004</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1516,17 +1513,17 @@
       <c r="J17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>42.47513</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>-81.441479999999999</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -1558,17 +1555,17 @@
       <c r="J18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>42.824939999999998</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>-79.567639999999997</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -1600,17 +1597,17 @@
       <c r="J19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>41.281170000000003</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>-81.670349999999999</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1642,17 +1639,17 @@
       <c r="J20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>41.515250000000002</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>-81.721530000000001</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1684,17 +1681,17 @@
       <c r="J21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>46.454450000000001</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>-84.830200000000005</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -1726,17 +1723,17 @@
       <c r="J22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>46.013069999999999</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>-84.830200000000005</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1768,17 +1765,17 @@
       <c r="J23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>46.664230000000003</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>-82.754599999999996</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -1810,17 +1807,17 @@
       <c r="J24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>42.472000000000001</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>-82.8767</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -1852,15 +1849,15 @@
       <c r="J25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>44.581330000000001</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>-87.979699999999994</v>
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1892,17 +1889,17 @@
       <c r="J26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>41.795189999999998</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>-87.576189999999997</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1934,17 +1931,17 @@
       <c r="J27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>44.220610000000001</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>-76.501649999999998</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1976,15 +1973,15 @@
       <c r="J28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>44.737580000000001</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>-87.777169999999998</v>
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -2016,17 +2013,17 @@
       <c r="J29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>46.664920000000002</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>-90.859920000000002</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -2058,17 +2055,17 @@
       <c r="J30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>44.142710000000001</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>-77.386049999999997</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -2100,17 +2097,17 @@
       <c r="J31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>44.751916000000001</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>-79.777751800000004</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -2142,17 +2139,17 @@
       <c r="J32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>47.121000000000002</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>-88.545000000000002</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -2184,17 +2181,17 @@
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>46.776739999999997</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>-88.483090000000004</v>
       </c>
       <c r="M33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>68</v>
       </c>
@@ -2226,17 +2223,17 @@
       <c r="J34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>41.472749999999998</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>-82.175200000000004</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -2268,17 +2265,17 @@
       <c r="J35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>44.974679999999999</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>-85.646879999999996</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -2310,14 +2307,14 @@
       <c r="J36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>44.76614</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>-85.605770000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -2349,14 +2346,14 @@
       <c r="J37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <v>42.466940000000001</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>-82.420829999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +2366,7 @@
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2388,17 +2385,17 @@
       <c r="J38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>41.659790000000001</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>-82.830584999999999</v>
       </c>
       <c r="M38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
@@ -2411,7 +2408,7 @@
       <c r="D39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2430,17 +2427,17 @@
       <c r="J39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>43.736359999999998</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>-83.948599999999999</v>
       </c>
       <c r="M39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>79</v>
       </c>
@@ -2453,7 +2450,7 @@
       <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2472,17 +2469,17 @@
       <c r="J40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>43.73836</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>-83.640780000000007</v>
       </c>
       <c r="M40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>79</v>
       </c>
@@ -2495,7 +2492,7 @@
       <c r="D41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2514,17 +2511,17 @@
       <c r="J41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>43.66742</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>-83.807019999999994</v>
       </c>
       <c r="M41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -2537,7 +2534,7 @@
       <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2556,17 +2553,17 @@
       <c r="J42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>43.297260000000001</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <v>-79.801839999999999</v>
       </c>
       <c r="M42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
@@ -2579,7 +2576,7 @@
       <c r="D43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2598,17 +2595,17 @@
       <c r="J43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="8">
         <v>43.301000000000002</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>-79.791939999999997</v>
       </c>
       <c r="M43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>88</v>
       </c>
@@ -2621,7 +2618,7 @@
       <c r="D44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2640,17 +2637,17 @@
       <c r="J44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>46.289400000000001</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>-83.793000000000006</v>
       </c>
       <c r="M44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
@@ -2663,7 +2660,7 @@
       <c r="D45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2682,17 +2679,17 @@
       <c r="J45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="8">
         <v>46.529167000000001</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>-84.586116700000005</v>
       </c>
       <c r="M45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>88</v>
       </c>
@@ -2705,7 +2702,7 @@
       <c r="D46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -2731,7 +2728,7 @@
         <v>-84.346299999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>35</v>
       </c>
@@ -2744,7 +2741,7 @@
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2763,14 +2760,14 @@
       <c r="J47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="8">
         <v>41.659790000000001</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="8">
         <v>-82.830584999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +2780,7 @@
       <c r="D48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>96</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2802,14 +2799,14 @@
       <c r="J48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>43.301000000000002</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="8">
         <v>-79.791939999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>88</v>
       </c>
@@ -2822,7 +2819,7 @@
       <c r="D49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -2841,17 +2838,17 @@
       <c r="J49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="8">
         <v>43.741950000000003</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="8">
         <v>-81.834582999999995</v>
       </c>
       <c r="M49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>88</v>
       </c>
@@ -2864,7 +2861,7 @@
       <c r="D50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -2883,17 +2880,17 @@
       <c r="J50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="8">
         <v>46.289400000000001</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="8">
         <v>-83.793000000000006</v>
       </c>
       <c r="M50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
@@ -2906,7 +2903,7 @@
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2925,14 +2922,14 @@
       <c r="J51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="8">
         <v>46.529167000000001</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="8">
         <v>-84.586116700000005</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>88</v>
       </c>
@@ -2945,7 +2942,7 @@
       <c r="D52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2974,7 +2971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2987,7 +2984,7 @@
       <c r="D53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -3006,17 +3003,17 @@
       <c r="J53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="8">
         <v>43.089300000000001</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="8">
         <v>-82.412300000000002</v>
       </c>
       <c r="M53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
@@ -3029,7 +3026,7 @@
       <c r="D54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -3048,17 +3045,17 @@
       <c r="J54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="8">
         <v>42.351483000000002</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="8">
         <v>-82.935167000000007</v>
       </c>
       <c r="M54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3071,7 +3068,7 @@
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -3090,17 +3087,17 @@
       <c r="J55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="8">
         <v>43.456829999999997</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="8">
         <v>-82.251166999999995</v>
       </c>
       <c r="M55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
@@ -3113,7 +3110,7 @@
       <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -3132,10 +3129,10 @@
       <c r="J56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="8">
         <v>43.741950000000003</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="8">
         <v>-81.834582999999995</v>
       </c>
     </row>
